--- a/data/trans_dic/Cage-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Cage-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/Cage-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Cage-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/trans_dic/Cage-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Cage-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>0; 0,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>0; 0,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>0; 0,32</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0; 0,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0; 0,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0; 0,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0; 0,26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0; 0,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>0; 0,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0; 0,36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>0; 0,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0; 0,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0; 0,21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,07</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
